--- a/res/testcase/PakringOperation/UpgradeService/activityVoucher.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/activityVoucher.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365" firstSheet="5" activeTab="8"/>
+    <workbookView windowWidth="21600" windowHeight="9765" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -581,9 +581,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -602,8 +602,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,29 +643,6 @@
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -655,25 +661,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -687,7 +687,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -703,7 +703,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -718,31 +732,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -761,7 +761,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,25 +791,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,73 +803,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,7 +827,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,31 +905,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,6 +970,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -985,11 +994,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,21 +1020,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,10 +1075,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1087,16 +1087,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1108,116 +1108,116 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1228,6 +1228,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1607,218 +1610,218 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:2">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
@@ -1886,7 +1889,7 @@
       <c r="A36" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1894,7 +1897,7 @@
       <c r="A37" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1902,7 +1905,7 @@
       <c r="A38" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1910,7 +1913,7 @@
       <c r="A39" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1940,22 +1943,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="20.375" style="3" customWidth="1"/>
     <col min="4" max="4" width="41" style="3" customWidth="1"/>
     <col min="5" max="5" width="24.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.75" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="17.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:5">
@@ -2017,7 +2019,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="5" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>90</v>
       </c>
@@ -2046,7 +2048,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" ht="33" customHeight="1" spans="1:7">
+    <row r="7" ht="33" customHeight="1" spans="1:6">
       <c r="A7" s="3" t="s">
         <v>96</v>
       </c>
@@ -2062,10 +2064,9 @@
       <c r="E7" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" ht="33" customHeight="1" spans="1:7">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" ht="33" customHeight="1" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>100</v>
       </c>
@@ -2078,10 +2079,9 @@
       <c r="D8" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" ht="33" customHeight="1" spans="1:7">
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" ht="33" customHeight="1" spans="1:6">
       <c r="A9" s="3" t="s">
         <v>103</v>
       </c>
@@ -2097,10 +2097,9 @@
       <c r="E9" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" ht="33" customHeight="1" spans="1:7">
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" ht="33" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>107</v>
       </c>
@@ -2113,10 +2112,9 @@
       <c r="D10" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" ht="33" customHeight="1" spans="1:7">
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" ht="33" customHeight="1" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>110</v>
       </c>
@@ -2132,10 +2130,9 @@
       <c r="E11" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" ht="33" customHeight="1" spans="1:7">
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" ht="33" customHeight="1" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>114</v>
       </c>
@@ -2151,10 +2148,9 @@
       <c r="E12" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" ht="33" customHeight="1" spans="1:7">
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" ht="33" customHeight="1" spans="1:6">
       <c r="A13" s="3" t="s">
         <v>118</v>
       </c>
@@ -2167,10 +2163,9 @@
       <c r="D13" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" ht="33" customHeight="1" spans="1:7">
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" ht="33" customHeight="1" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>121</v>
       </c>
@@ -2183,10 +2178,9 @@
       <c r="D14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" ht="33" customHeight="1" spans="1:7">
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" ht="33" customHeight="1" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>124</v>
       </c>
@@ -2202,10 +2196,9 @@
       <c r="E15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>128</v>
       </c>
@@ -2221,10 +2214,9 @@
       <c r="E16" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" customFormat="1" ht="33" customHeight="1" spans="1:8">
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A17" s="3" t="s">
         <v>130</v>
       </c>
@@ -2240,11 +2232,10 @@
       <c r="E17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" customFormat="1" ht="33" customHeight="1" spans="1:8">
+      <c r="F17" s="7"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A18" s="3" t="s">
         <v>133</v>
       </c>
@@ -2260,11 +2251,10 @@
       <c r="E18" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="33" customHeight="1" spans="1:7">
+      <c r="F18" s="7"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>137</v>
       </c>
@@ -2280,10 +2270,9 @@
       <c r="E19" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>141</v>
       </c>
@@ -2372,8 +2361,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2416,7 +2405,7 @@
       <c r="D2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E2"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
@@ -2431,7 +2420,7 @@
       <c r="D3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E3"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
@@ -2446,7 +2435,7 @@
       <c r="D4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E4"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
@@ -3664,7 +3653,7 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/res/testcase/PakringOperation/UpgradeService/activityVoucher.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/activityVoucher.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" activeTab="2"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="962" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="184">
   <si>
     <t>动作</t>
   </si>
@@ -507,6 +507,18 @@
     <t>4操作成功</t>
   </si>
   <si>
+    <t>点击打开筛选停车场</t>
+  </si>
+  <si>
+    <t>ActivityVoucherPage.请选择停车场</t>
+  </si>
+  <si>
+    <t>勾选停车场</t>
+  </si>
+  <si>
+    <t>ActivityVoucherPage.选择停车场列表</t>
+  </si>
+  <si>
     <t>勾选列表记录</t>
   </si>
   <si>
@@ -529,18 +541,6 @@
   </si>
   <si>
     <t>ActivityVoucherPage.禁用</t>
-  </si>
-  <si>
-    <t>点击打开筛选停车场</t>
-  </si>
-  <si>
-    <t>ActivityVoucherPage.请选择停车场</t>
-  </si>
-  <si>
-    <t>勾选停车场</t>
-  </si>
-  <si>
-    <t>ActivityVoucherPage.选择停车场列表</t>
   </si>
   <si>
     <t>检查支付优惠记录</t>
@@ -581,10 +581,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -602,6 +602,36 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -610,22 +640,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,13 +679,14 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -662,15 +695,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -685,32 +710,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -723,26 +731,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -761,7 +761,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,31 +845,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,31 +887,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,31 +899,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,55 +935,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,11 +970,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -994,6 +1024,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1009,61 +1059,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,10 +1075,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1087,137 +1087,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1228,9 +1228,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1610,218 +1607,218 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
@@ -1889,7 +1886,7 @@
       <c r="A36" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1897,7 +1894,7 @@
       <c r="A37" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1905,7 +1902,7 @@
       <c r="A38" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1913,7 +1910,7 @@
       <c r="A39" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1945,8 +1942,8 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2019,7 +2016,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="5" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>90</v>
       </c>
@@ -2064,7 +2061,7 @@
       <c r="E7" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" ht="33" customHeight="1" spans="1:6">
       <c r="A8" s="3" t="s">
@@ -2079,7 +2076,7 @@
       <c r="D8" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="1:6">
       <c r="A9" s="3" t="s">
@@ -2097,7 +2094,7 @@
       <c r="E9" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" ht="33" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
@@ -2112,7 +2109,7 @@
       <c r="D10" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:6">
       <c r="A11" s="3" t="s">
@@ -2130,7 +2127,7 @@
       <c r="E11" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" ht="33" customHeight="1" spans="1:6">
       <c r="A12" s="3" t="s">
@@ -2148,7 +2145,7 @@
       <c r="E12" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:6">
       <c r="A13" s="3" t="s">
@@ -2163,7 +2160,7 @@
       <c r="D13" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:6">
       <c r="A14" s="3" t="s">
@@ -2178,7 +2175,7 @@
       <c r="D14" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:6">
       <c r="A15" s="3" t="s">
@@ -2196,7 +2193,7 @@
       <c r="E15" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A16" s="3" t="s">
@@ -2214,7 +2211,7 @@
       <c r="E16" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" customFormat="1" ht="33" customHeight="1" spans="1:7">
       <c r="A17" s="3" t="s">
@@ -2232,7 +2229,7 @@
       <c r="E17" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" customFormat="1" ht="33" customHeight="1" spans="1:7">
@@ -2251,7 +2248,7 @@
       <c r="E18" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
@@ -2270,9 +2267,9 @@
       <c r="E19" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>141</v>
       </c>
@@ -2361,8 +2358,8 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2405,7 +2402,7 @@
       <c r="D2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
@@ -2420,7 +2417,7 @@
       <c r="D3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
@@ -2435,7 +2432,7 @@
       <c r="D4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
@@ -2618,10 +2615,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E6" sqref="B6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2719,28 +2716,28 @@
         <v>161</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>158</v>
-      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="E7" s="3" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:5">
@@ -2748,28 +2745,30 @@
         <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -2778,16 +2777,16 @@
         <v>107</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
@@ -2800,8 +2799,70 @@
       <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" ht="30" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2810,10 +2871,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C8 C2:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C10 C12 C2:C4 C6:C7 C8:C9">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C9 B10 C10 C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C13 B14 C14 C15">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
   </dataValidations>
@@ -2825,10 +2886,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E6" sqref="B6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2926,28 +2987,28 @@
         <v>161</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" ht="33" customHeight="1" spans="1:5">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="35" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="E7" s="3" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:5">
@@ -2955,46 +3016,48 @@
         <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="9" ht="35" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="33" customHeight="1" spans="1:5">
+    <row r="10" ht="35" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:5">
@@ -3007,8 +3070,70 @@
       <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" ht="35" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" ht="35" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" ht="33" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" ht="33" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3017,10 +3142,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C8 C2:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C10 C12 C2:C4 C6:C7 C8:C9">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C9 B10 C10 C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C13 B14 C14 C15">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
   </dataValidations>
@@ -3035,7 +3160,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3130,13 +3255,13 @@
         <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -3145,13 +3270,13 @@
         <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>106</v>
@@ -3207,10 +3332,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3307,28 +3432,28 @@
         <v>161</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>158</v>
-      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" ht="28" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>91</v>
+        <v>163</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="E7" s="3" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" ht="28" customHeight="1" spans="1:5">
@@ -3336,28 +3461,30 @@
         <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E8" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -3366,16 +3493,16 @@
         <v>107</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:5">
@@ -3388,8 +3515,70 @@
       <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" ht="28" customHeight="1" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" ht="28" customHeight="1" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" ht="28" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" ht="28" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3398,10 +3587,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C8 C2:C4 C12:C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C10 C12 C2:C4 C6:C7 C8:C9 C16:C17">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C9 B10 C10 C11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C13 B14 C14 C15">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
   </dataValidations>
@@ -3542,13 +3731,13 @@
         <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>176</v>
@@ -3566,7 +3755,7 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="3" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3595,7 +3784,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -3613,7 +3802,7 @@
         <v>146</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3786,7 +3975,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -3804,7 +3993,7 @@
         <v>146</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">

--- a/res/testcase/PakringOperation/UpgradeService/activityVoucher.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/activityVoucher.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="962" activeTab="6"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="962" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="184">
   <si>
     <t>动作</t>
   </si>
@@ -761,18 +761,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -791,31 +779,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,19 +809,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,19 +821,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,31 +839,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,7 +893,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,142 +1075,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1942,8 +1942,8 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2359,7 +2359,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2618,7 +2618,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="B6:E9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2889,7 +2889,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E6" sqref="B6:E9"/>
+      <selection activeCell="B9" sqref="B9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3157,10 +3157,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3287,28 +3287,43 @@
         <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3" t="s">
-        <v>158</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3317,10 +3332,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C9 C2:C5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C7 C8 C10 C2:C5">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
       <formula1>Actions!$A$2:$A$45</formula1>
     </dataValidation>
   </dataValidations>
@@ -3334,8 +3349,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3602,10 +3617,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3647,7 +3662,7 @@
       <c r="D2" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E2"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A3" s="3" t="s">
@@ -3662,7 +3677,7 @@
       <c r="D3" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E3"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A4" s="3" t="s">
@@ -3677,7 +3692,7 @@
       <c r="D4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A5" s="3" t="s">
@@ -3699,45 +3714,45 @@
         <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>176</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>176</v>
@@ -3748,75 +3763,107 @@
         <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>91</v>
+        <v>152</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3" t="s">
-        <v>167</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E10" s="3"/>
+        <v>72</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>69</v>
+        <v>177</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>171</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3825,10 +3872,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C10 C2:C4 C14:C15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C9 C10 C12 C2:C4 C6:C7 C16:C17">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9 C11 B12 C12 C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C13 B14 C14 C15">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
   </dataValidations>
@@ -3843,7 +3890,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3945,9 +3992,7 @@
       <c r="D6" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>176</v>
-      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">

--- a/res/testcase/PakringOperation/UpgradeService/activityVoucher.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/activityVoucher.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="962" firstSheet="2" activeTab="7"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="962" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="175">
   <si>
     <t>动作</t>
   </si>
@@ -357,123 +357,108 @@
     <t>10</t>
   </si>
   <si>
-    <t>勾选适用支付渠道</t>
-  </si>
-  <si>
-    <t>ActivityVoucherPage.适用支付渠道</t>
-  </si>
-  <si>
-    <t>一点停APP;on</t>
+    <t>勾选适用对象</t>
+  </si>
+  <si>
+    <t>ActivityVoucherPage.适用对象</t>
+  </si>
+  <si>
+    <t>注册用户;on</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>勾选适用对象</t>
-  </si>
-  <si>
-    <t>ActivityVoucherPage.适用对象</t>
-  </si>
-  <si>
-    <t>一点停手机用户;on</t>
+    <t>点击有效日期</t>
+  </si>
+  <si>
+    <t>ActivityVoucherPage.有效日期</t>
   </si>
   <si>
     <t>12</t>
   </si>
   <si>
-    <t>点击有效日期</t>
-  </si>
-  <si>
-    <t>ActivityVoucherPage.有效日期</t>
+    <t>点击后一天</t>
+  </si>
+  <si>
+    <t>ActivityVoucherPage.后一天</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>点击后一天</t>
-  </si>
-  <si>
-    <t>ActivityVoucherPage.后一天</t>
+    <t>输入最高优惠金额</t>
+  </si>
+  <si>
+    <t>ActivityVoucherPage.最高优惠金额</t>
+  </si>
+  <si>
+    <t>100</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>勾选有效星期</t>
-  </si>
-  <si>
-    <t>ActivityVoucherPage.有效星期</t>
-  </si>
-  <si>
-    <t>星期一;on</t>
+    <t>输入车费条件1</t>
+  </si>
+  <si>
+    <t>ActivityVoucherPage.车费条件1</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>星期四;on</t>
+    <t>输入车费条件2</t>
+  </si>
+  <si>
+    <t>ActivityVoucherPage.车费条件2</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
   <si>
     <t>16</t>
   </si>
   <si>
-    <t>输入车费条件1</t>
-  </si>
-  <si>
-    <t>ActivityVoucherPage.车费条件1</t>
+    <t>2新增支付优惠管理界面</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>输入车费条件2</t>
-  </si>
-  <si>
-    <t>ActivityVoucherPage.车费条件2</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>点击确定</t>
+  </si>
+  <si>
+    <t>ActivityVoucherPage.保存-提示</t>
   </si>
   <si>
     <t>18</t>
   </si>
   <si>
-    <t>输入最高优惠金额</t>
-  </si>
-  <si>
-    <t>ActivityVoucherPage.最高优惠金额</t>
-  </si>
-  <si>
-    <t>100</t>
+    <t>ActivityVoucherPage.操作成功-提示</t>
+  </si>
+  <si>
+    <t>保存成功</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>2新增支付优惠管理界面</t>
-  </si>
-  <si>
-    <t>点击确定</t>
-  </si>
-  <si>
-    <t>ActivityVoucherPage.确定-提示</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>ActivityVoucherPage.操作成功-提示</t>
-  </si>
-  <si>
-    <t>保存成功</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>3操作成功</t>
   </si>
   <si>
+    <t>点击打开筛选停车场</t>
+  </si>
+  <si>
+    <t>ActivityVoucherPage.请选择停车场</t>
+  </si>
+  <si>
+    <t>勾选停车场</t>
+  </si>
+  <si>
+    <t>ActivityVoucherPage.选择停车场列表</t>
+  </si>
+  <si>
     <t>输入搜索框</t>
   </si>
   <si>
@@ -505,18 +490,6 @@
   </si>
   <si>
     <t>4操作成功</t>
-  </si>
-  <si>
-    <t>点击打开筛选停车场</t>
-  </si>
-  <si>
-    <t>ActivityVoucherPage.请选择停车场</t>
-  </si>
-  <si>
-    <t>勾选停车场</t>
-  </si>
-  <si>
-    <t>ActivityVoucherPage.选择停车场列表</t>
   </si>
   <si>
     <t>勾选列表记录</t>
@@ -582,9 +555,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -610,6 +583,74 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -617,8 +658,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -632,49 +681,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -694,36 +705,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -732,15 +713,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,7 +734,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,37 +872,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,121 +884,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,6 +903,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,21 +943,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1009,37 +967,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1059,11 +991,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,10 +1048,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1087,133 +1060,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1940,13 +1913,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="28.875" style="3" customWidth="1"/>
@@ -2137,47 +2110,47 @@
         <v>115</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="F12" s="6"/>
     </row>
     <row r="13" ht="33" customHeight="1" spans="1:6">
       <c r="A13" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
+      <c r="A14" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" ht="33" customHeight="1" spans="1:6">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>123</v>
       </c>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" ht="33" customHeight="1" spans="1:6">
+    <row r="15" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>124</v>
       </c>
@@ -2185,54 +2158,50 @@
         <v>125</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
       <c r="A16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="C16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>126</v>
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F16" s="6"/>
     </row>
-    <row r="17" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    <row r="17" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A17" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" customFormat="1" ht="33" customHeight="1" spans="1:7">
+    </row>
+    <row r="18" ht="27" customHeight="1" spans="1:4">
       <c r="A18" s="3" t="s">
         <v>133</v>
       </c>
@@ -2240,38 +2209,32 @@
         <v>134</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E18" s="3" t="s">
+    </row>
+    <row r="19" ht="27" customHeight="1" spans="1:5">
+      <c r="A19" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="33" customHeight="1" spans="1:6">
-      <c r="A19" s="3" t="s">
+      <c r="B19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="3" t="s">
+    </row>
+    <row r="20" ht="27" customHeight="1" spans="1:5">
+      <c r="A20" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A20" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>91</v>
@@ -2279,71 +2242,25 @@
       <c r="C20" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="3"/>
       <c r="E20" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" ht="27" customHeight="1" spans="1:4">
-      <c r="A21" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" ht="27" customHeight="1" spans="1:5">
-      <c r="A22" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="23" ht="27" customHeight="1" spans="1:5">
-      <c r="A23" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C34:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C16 C19 C20 C2:C4 C17:C18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C17 C2:C4 C15:C16">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21 B22 C22 C23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18 B19 C19 C20">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C22">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:C33">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -2356,10 +2273,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2367,7 +2284,7 @@
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="22.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="30.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.25" style="3" customWidth="1"/>
     <col min="5" max="5" width="24.625" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -2454,46 +2371,48 @@
         <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>99</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="E8" s="3" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2501,13 +2420,13 @@
         <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>156</v>
+      <c r="D9" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -2516,16 +2435,14 @@
         <v>107</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>98</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -2533,77 +2450,109 @@
         <v>110</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3" t="s">
-        <v>159</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" ht="26" customHeight="1" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="D15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" ht="26" customHeight="1" spans="1:5">
+      <c r="A16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>160</v>
+      <c r="E16" s="3" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C38:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C40:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C2:C4 C6:C7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C2:C4 C8:C9">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C9 C10 C11 C12 B13 C13 C14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C11 C12 C13 C14 B15 C15 C16">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17:C28">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C29:C39">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>
@@ -2618,7 +2567,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2713,13 +2662,13 @@
         <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2728,13 +2677,13 @@
         <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>106</v>
@@ -2745,16 +2694,16 @@
         <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:5">
@@ -2762,13 +2711,13 @@
         <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -2777,16 +2726,16 @@
         <v>107</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:5">
@@ -2801,7 +2750,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:5">
@@ -2809,19 +2758,19 @@
         <v>114</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>108</v>
@@ -2830,13 +2779,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>69</v>
@@ -2845,10 +2794,10 @@
         <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:5">
@@ -2863,7 +2812,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2984,13 +2933,13 @@
         <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2999,13 +2948,13 @@
         <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>106</v>
@@ -3016,16 +2965,16 @@
         <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" ht="35" customHeight="1" spans="1:5">
@@ -3033,13 +2982,13 @@
         <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -3048,16 +2997,16 @@
         <v>107</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" ht="33" customHeight="1" spans="1:5">
@@ -3072,7 +3021,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" ht="35" customHeight="1" spans="1:5">
@@ -3080,19 +3029,19 @@
         <v>114</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="35" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>108</v>
@@ -3101,13 +3050,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>69</v>
@@ -3116,10 +3065,10 @@
         <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:5">
@@ -3134,7 +3083,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3255,13 +3204,13 @@
         <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -3270,13 +3219,13 @@
         <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>106</v>
@@ -3287,13 +3236,13 @@
         <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -3302,14 +3251,14 @@
         <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:5">
@@ -3324,7 +3273,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3350,7 +3299,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3444,13 +3393,13 @@
         <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -3459,13 +3408,13 @@
         <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>106</v>
@@ -3476,16 +3425,16 @@
         <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" ht="28" customHeight="1" spans="1:5">
@@ -3493,13 +3442,13 @@
         <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -3508,16 +3457,16 @@
         <v>107</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" ht="28" customHeight="1" spans="1:5">
@@ -3532,7 +3481,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" ht="28" customHeight="1" spans="1:5">
@@ -3540,19 +3489,19 @@
         <v>114</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>108</v>
@@ -3561,13 +3510,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" ht="28" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>69</v>
@@ -3576,10 +3525,10 @@
         <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" ht="28" customHeight="1" spans="1:5">
@@ -3594,7 +3543,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3619,8 +3568,8 @@
   <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3714,13 +3663,13 @@
         <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -3729,13 +3678,13 @@
         <v>96</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>106</v>
@@ -3746,16 +3695,16 @@
         <v>100</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3763,13 +3712,13 @@
         <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -3778,16 +3727,16 @@
         <v>107</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3802,7 +3751,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3810,19 +3759,19 @@
         <v>114</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A13" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>108</v>
@@ -3831,13 +3780,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E13" s="3"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A14" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>69</v>
@@ -3846,10 +3795,10 @@
         <v>69</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3864,7 +3813,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3889,8 +3838,8 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3954,13 +3903,13 @@
         <v>87</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="E4" s="4"/>
     </row>
@@ -3976,7 +3925,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -3984,13 +3933,13 @@
         <v>93</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -4006,7 +3955,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4020,7 +3969,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -4035,10 +3984,10 @@
         <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
@@ -4053,7 +4002,7 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
